--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16474\Desktop\study\Data_Structure\Lesson1Examples(1)\presentation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0996B941-00C9-4FBF-B34A-97427F4478A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF2FFED-0408-4E55-9999-762A13676BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>TestScenario</t>
   </si>
@@ -58,17 +58,26 @@
     <t>pwd</t>
   </si>
   <si>
+    <t>loginTest3</t>
+  </si>
+  <si>
+    <t>loginTest2</t>
+  </si>
+  <si>
+    <t>OracleEBS</t>
+  </si>
+  <si>
+    <t>loginToOracleEBS</t>
+  </si>
+  <si>
     <t>loginTest</t>
-  </si>
-  <si>
-    <t>loginTest2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,10 +86,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9.8000000000000007"/>
       <color rgb="FFFFC66D"/>
       <name val="Courier New"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFFFC66D"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFFFC66D"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,11 +139,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -379,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -435,9 +481,37 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
